--- a/(01)资料及文档/(02)我的文档/(01)资料整理/MPLAB X IDE应用知识/MPLAB_X_IDE.xlsx
+++ b/(01)资料及文档/(02)我的文档/(01)资料整理/MPLAB X IDE应用知识/MPLAB_X_IDE.xlsx
@@ -7,17 +7,25 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stdio_h库文件" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Stdio_h库文件</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +41,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,8 +78,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -354,12 +379,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:2" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
